--- a/Code/Results/Cases/Case_2_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010010542907148</v>
+        <v>1.033524121305692</v>
       </c>
       <c r="D2">
-        <v>1.02965194044684</v>
+        <v>1.043711246246137</v>
       </c>
       <c r="E2">
-        <v>1.025450490180422</v>
+        <v>1.051408696855093</v>
       </c>
       <c r="F2">
-        <v>1.033746689520477</v>
+        <v>1.05650988762704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046702253175487</v>
+        <v>1.038235441160286</v>
       </c>
       <c r="J2">
-        <v>1.03189590800071</v>
+        <v>1.03864837572425</v>
       </c>
       <c r="K2">
-        <v>1.040713072914985</v>
+        <v>1.046484342436077</v>
       </c>
       <c r="L2">
-        <v>1.036566290014117</v>
+        <v>1.054160280470766</v>
       </c>
       <c r="M2">
-        <v>1.044755077522097</v>
+        <v>1.059247401728483</v>
       </c>
       <c r="N2">
-        <v>1.01452152275577</v>
+        <v>1.016859921101848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013593122839859</v>
+        <v>1.034286375530582</v>
       </c>
       <c r="D3">
-        <v>1.03242119098566</v>
+        <v>1.044330046317329</v>
       </c>
       <c r="E3">
-        <v>1.029071402029913</v>
+        <v>1.052267596531864</v>
       </c>
       <c r="F3">
-        <v>1.037268285439646</v>
+        <v>1.057331748497834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047641947992271</v>
+        <v>1.038392259226163</v>
       </c>
       <c r="J3">
-        <v>1.033719962015229</v>
+        <v>1.039054328792287</v>
       </c>
       <c r="K3">
-        <v>1.042655384637831</v>
+        <v>1.046914735619861</v>
       </c>
       <c r="L3">
-        <v>1.039345345322792</v>
+        <v>1.054831701528539</v>
       </c>
       <c r="M3">
-        <v>1.047445524274212</v>
+        <v>1.059882894866289</v>
       </c>
       <c r="N3">
-        <v>1.015131939548677</v>
+        <v>1.016995203377904</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01587059427738</v>
+        <v>1.034780233276087</v>
       </c>
       <c r="D4">
-        <v>1.034184556894663</v>
+        <v>1.044731032906577</v>
       </c>
       <c r="E4">
-        <v>1.031381637308568</v>
+        <v>1.052824835392386</v>
       </c>
       <c r="F4">
-        <v>1.039513394380473</v>
+        <v>1.057864748094505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048231263059187</v>
+        <v>1.038492854421043</v>
       </c>
       <c r="J4">
-        <v>1.034876860454314</v>
+        <v>1.039316941390243</v>
       </c>
       <c r="K4">
-        <v>1.043887194094147</v>
+        <v>1.047193116403528</v>
       </c>
       <c r="L4">
-        <v>1.041115510749726</v>
+        <v>1.055266983402796</v>
       </c>
       <c r="M4">
-        <v>1.049157216738833</v>
+        <v>1.060294648198379</v>
       </c>
       <c r="N4">
-        <v>1.015519035609587</v>
+        <v>1.017082695233123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016818576430966</v>
+        <v>1.034987999628495</v>
       </c>
       <c r="D5">
-        <v>1.034919216747176</v>
+        <v>1.044899744990607</v>
       </c>
       <c r="E5">
-        <v>1.032345258712715</v>
+        <v>1.053059449267036</v>
       </c>
       <c r="F5">
-        <v>1.040449423672208</v>
+        <v>1.058089106466545</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048474600302952</v>
+        <v>1.038534934052772</v>
       </c>
       <c r="J5">
-        <v>1.035357749641689</v>
+        <v>1.039427326612931</v>
       </c>
       <c r="K5">
-        <v>1.044399194655433</v>
+        <v>1.047310119384432</v>
       </c>
       <c r="L5">
-        <v>1.041853151118724</v>
+        <v>1.05545017228951</v>
       </c>
       <c r="M5">
-        <v>1.049869998788285</v>
+        <v>1.060467878451152</v>
       </c>
       <c r="N5">
-        <v>1.015679924698413</v>
+        <v>1.017119465622807</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016977199492555</v>
+        <v>1.035022893170703</v>
       </c>
       <c r="D6">
-        <v>1.035042183685092</v>
+        <v>1.044928080489048</v>
       </c>
       <c r="E6">
-        <v>1.032506615924397</v>
+        <v>1.053098862471737</v>
       </c>
       <c r="F6">
-        <v>1.040606135368355</v>
+        <v>1.058126793896005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048515201118537</v>
+        <v>1.038541987037821</v>
       </c>
       <c r="J6">
-        <v>1.035438175858306</v>
+        <v>1.03944585973709</v>
       </c>
       <c r="K6">
-        <v>1.044484822372018</v>
+        <v>1.047329762999641</v>
       </c>
       <c r="L6">
-        <v>1.041976626023191</v>
+        <v>1.055480941975556</v>
       </c>
       <c r="M6">
-        <v>1.049989283554266</v>
+        <v>1.06049697209557</v>
       </c>
       <c r="N6">
-        <v>1.015706831602692</v>
+        <v>1.017125638863817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015883298100809</v>
+        <v>1.034783008878857</v>
       </c>
       <c r="D7">
-        <v>1.034194399400624</v>
+        <v>1.044733286708517</v>
       </c>
       <c r="E7">
-        <v>1.031394542826831</v>
+        <v>1.052827968939204</v>
       </c>
       <c r="F7">
-        <v>1.039525932057046</v>
+        <v>1.057867744863489</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048234531779385</v>
+        <v>1.038493417519523</v>
       </c>
       <c r="J7">
-        <v>1.034883307449791</v>
+        <v>1.039318416431827</v>
       </c>
       <c r="K7">
-        <v>1.043894058293767</v>
+        <v>1.047194679916037</v>
       </c>
       <c r="L7">
-        <v>1.041125392585323</v>
+        <v>1.055269430412172</v>
       </c>
       <c r="M7">
-        <v>1.049166767507184</v>
+        <v>1.060296962404208</v>
       </c>
       <c r="N7">
-        <v>1.015521192617423</v>
+        <v>1.017083186605396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011229889065536</v>
+        <v>1.033781597480278</v>
       </c>
       <c r="D8">
-        <v>1.030593831984448</v>
+        <v>1.043920251065131</v>
       </c>
       <c r="E8">
-        <v>1.026681117423993</v>
+        <v>1.05169865971801</v>
       </c>
       <c r="F8">
-        <v>1.034943927018636</v>
+        <v>1.056787389490717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0470237507735</v>
+        <v>1.038288619620223</v>
       </c>
       <c r="J8">
-        <v>1.032517276545326</v>
+        <v>1.038785582404612</v>
       </c>
       <c r="K8">
-        <v>1.041374743010978</v>
+        <v>1.04662981825904</v>
       </c>
       <c r="L8">
-        <v>1.037511408859923</v>
+        <v>1.054387017969378</v>
       </c>
       <c r="M8">
-        <v>1.045670483741872</v>
+        <v>1.059462055344869</v>
       </c>
       <c r="N8">
-        <v>1.014729473989062</v>
+        <v>1.016905649387706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002705324994476</v>
+        <v>1.032021876882297</v>
       </c>
       <c r="D9">
-        <v>1.024022765646854</v>
+        <v>1.042492116750668</v>
       </c>
       <c r="E9">
-        <v>1.018113704596446</v>
+        <v>1.049720047886395</v>
       </c>
       <c r="F9">
-        <v>1.026601791881274</v>
+        <v>1.054892953760097</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044743299777522</v>
+        <v>1.037921058500404</v>
       </c>
       <c r="J9">
-        <v>1.028162911626226</v>
+        <v>1.037846210051273</v>
       </c>
       <c r="K9">
-        <v>1.036737753211421</v>
+        <v>1.045633660840718</v>
       </c>
       <c r="L9">
-        <v>1.030919579908175</v>
+        <v>1.052838509217487</v>
       </c>
       <c r="M9">
-        <v>1.039277529219764</v>
+        <v>1.05799510746232</v>
       </c>
       <c r="N9">
-        <v>1.013272031516575</v>
+        <v>1.016592482969039</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9967849805955356</v>
+        <v>1.03085213154388</v>
       </c>
       <c r="D10">
-        <v>1.019478219548385</v>
+        <v>1.041543192552042</v>
       </c>
       <c r="E10">
-        <v>1.012209999166184</v>
+        <v>1.048408744958113</v>
       </c>
       <c r="F10">
-        <v>1.020844468866167</v>
+        <v>1.053636367272013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043119165028723</v>
+        <v>1.037671569745549</v>
       </c>
       <c r="J10">
-        <v>1.025126739330924</v>
+        <v>1.037219734686705</v>
       </c>
       <c r="K10">
-        <v>1.033504474571225</v>
+        <v>1.044969102162975</v>
       </c>
       <c r="L10">
-        <v>1.026362243127017</v>
+        <v>1.051810586614146</v>
       </c>
       <c r="M10">
-        <v>1.034847299853987</v>
+        <v>1.057020114409214</v>
       </c>
       <c r="N10">
-        <v>1.012255636461396</v>
+        <v>1.016383515299106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9941606107488061</v>
+        <v>1.030346449243923</v>
       </c>
       <c r="D11">
-        <v>1.017468778944901</v>
+        <v>1.0411330728517</v>
       </c>
       <c r="E11">
-        <v>1.009604266413177</v>
+        <v>1.047842805834544</v>
       </c>
       <c r="F11">
-        <v>1.018301319857428</v>
+        <v>1.05309378912461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042390064647608</v>
+        <v>1.037562492651705</v>
       </c>
       <c r="J11">
-        <v>1.023778349158057</v>
+        <v>1.036948426135298</v>
       </c>
       <c r="K11">
-        <v>1.03206861126944</v>
+        <v>1.044681250981125</v>
       </c>
       <c r="L11">
-        <v>1.024347305066784</v>
+        <v>1.051366554307569</v>
       </c>
       <c r="M11">
-        <v>1.032886160550403</v>
+        <v>1.056598658797985</v>
       </c>
       <c r="N11">
-        <v>1.011804230195378</v>
+        <v>1.016292990673146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9931762571290046</v>
+        <v>1.030158742194022</v>
       </c>
       <c r="D12">
-        <v>1.016715882722566</v>
+        <v>1.040980853898019</v>
       </c>
       <c r="E12">
-        <v>1.00862861872437</v>
+        <v>1.047632872983634</v>
       </c>
       <c r="F12">
-        <v>1.017348807152878</v>
+        <v>1.05289248379388</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042115253112065</v>
+        <v>1.037521820030239</v>
       </c>
       <c r="J12">
-        <v>1.023272244215427</v>
+        <v>1.036847645260756</v>
       </c>
       <c r="K12">
-        <v>1.031529690141595</v>
+        <v>1.044574317709982</v>
       </c>
       <c r="L12">
-        <v>1.023592354281966</v>
+        <v>1.051201782726125</v>
       </c>
       <c r="M12">
-        <v>1.032151011883891</v>
+        <v>1.056442221815254</v>
       </c>
       <c r="N12">
-        <v>1.011634798694729</v>
+        <v>1.016259360215746</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9933878430909787</v>
+        <v>1.030199000266889</v>
       </c>
       <c r="D13">
-        <v>1.016877679792048</v>
+        <v>1.041013500019671</v>
       </c>
       <c r="E13">
-        <v>1.008838255429464</v>
+        <v>1.047677891491108</v>
       </c>
       <c r="F13">
-        <v>1.017553486219166</v>
+        <v>1.052935653921408</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042174383547302</v>
+        <v>1.037530551517119</v>
       </c>
       <c r="J13">
-        <v>1.023381046285153</v>
+        <v>1.036869263296747</v>
       </c>
       <c r="K13">
-        <v>1.031645546181895</v>
+        <v>1.044597255803492</v>
       </c>
       <c r="L13">
-        <v>1.023754592942493</v>
+        <v>1.051237119439711</v>
       </c>
       <c r="M13">
-        <v>1.032309011035793</v>
+        <v>1.056475773054478</v>
       </c>
       <c r="N13">
-        <v>1.011671222952321</v>
+        <v>1.016266574308085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9940794409417151</v>
+        <v>1.030330930741868</v>
       </c>
       <c r="D14">
-        <v>1.017406678391395</v>
+        <v>1.041120487971787</v>
       </c>
       <c r="E14">
-        <v>1.009523779465707</v>
+        <v>1.0478254469517</v>
       </c>
       <c r="F14">
-        <v>1.018222747474692</v>
+        <v>1.053077144410716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042367430711334</v>
+        <v>1.037559133829048</v>
       </c>
       <c r="J14">
-        <v>1.023736622647473</v>
+        <v>1.036940095647148</v>
       </c>
       <c r="K14">
-        <v>1.03202417882059</v>
+        <v>1.044672412090825</v>
       </c>
       <c r="L14">
-        <v>1.024285035050647</v>
+        <v>1.051352930926477</v>
       </c>
       <c r="M14">
-        <v>1.032825531048567</v>
+        <v>1.056585725405713</v>
       </c>
       <c r="N14">
-        <v>1.011790261186498</v>
+        <v>1.016290210880199</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945042797072661</v>
+        <v>1.030412234197924</v>
       </c>
       <c r="D15">
-        <v>1.017731742896023</v>
+        <v>1.041186422443791</v>
       </c>
       <c r="E15">
-        <v>1.009945114302506</v>
+        <v>1.047916398190913</v>
       </c>
       <c r="F15">
-        <v>1.018634047786448</v>
+        <v>1.053164352224735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04248584120483</v>
+        <v>1.037576723614904</v>
       </c>
       <c r="J15">
-        <v>1.023955003120494</v>
+        <v>1.036983737198985</v>
       </c>
       <c r="K15">
-        <v>1.032256721822642</v>
+        <v>1.044718716742917</v>
       </c>
       <c r="L15">
-        <v>1.024610986706799</v>
+        <v>1.0514243076977</v>
       </c>
       <c r="M15">
-        <v>1.03314288099545</v>
+        <v>1.056653485360712</v>
       </c>
       <c r="N15">
-        <v>1.011863369580712</v>
+        <v>1.01630477342681</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969578356152251</v>
+        <v>1.030885709560016</v>
       </c>
       <c r="D16">
-        <v>1.019610681756514</v>
+        <v>1.041570427252564</v>
       </c>
       <c r="E16">
-        <v>1.012381863669834</v>
+        <v>1.048446343922372</v>
       </c>
       <c r="F16">
-        <v>1.021012163772067</v>
+        <v>1.053672408861561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043166999434878</v>
+        <v>1.037678786840953</v>
       </c>
       <c r="J16">
-        <v>1.025215501496676</v>
+        <v>1.037237739797533</v>
       </c>
       <c r="K16">
-        <v>1.033598996804067</v>
+        <v>1.044988204062897</v>
       </c>
       <c r="L16">
-        <v>1.02649506947208</v>
+        <v>1.051840078166211</v>
       </c>
       <c r="M16">
-        <v>1.034976530067423</v>
+        <v>1.057048100412779</v>
       </c>
       <c r="N16">
-        <v>1.012285351559332</v>
+        <v>1.01638952231223</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9984803216251195</v>
+        <v>1.031182930404172</v>
       </c>
       <c r="D17">
-        <v>1.020777976439825</v>
+        <v>1.04181151106331</v>
       </c>
       <c r="E17">
-        <v>1.013896913045961</v>
+        <v>1.048779265353023</v>
       </c>
       <c r="F17">
-        <v>1.022490225743532</v>
+        <v>1.053991511085384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043587278882266</v>
+        <v>1.037742528665645</v>
       </c>
       <c r="J17">
-        <v>1.025997024353441</v>
+        <v>1.03739705896827</v>
       </c>
       <c r="K17">
-        <v>1.034431243236196</v>
+        <v>1.045157222479425</v>
       </c>
       <c r="L17">
-        <v>1.027665588866302</v>
+        <v>1.052101166380423</v>
       </c>
       <c r="M17">
-        <v>1.036115085411965</v>
+        <v>1.057295826799296</v>
       </c>
       <c r="N17">
-        <v>1.012546981967522</v>
+        <v>1.016442672602994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9993625222599758</v>
+        <v>1.031356373781407</v>
       </c>
       <c r="D18">
-        <v>1.021454841100264</v>
+        <v>1.041952205404617</v>
       </c>
       <c r="E18">
-        <v>1.014775874384299</v>
+        <v>1.048973632467291</v>
       </c>
       <c r="F18">
-        <v>1.023347535067179</v>
+        <v>1.054177785692993</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043829935331699</v>
+        <v>1.037779607141204</v>
       </c>
       <c r="J18">
-        <v>1.026449634387282</v>
+        <v>1.037489983142192</v>
       </c>
       <c r="K18">
-        <v>1.03491323484577</v>
+        <v>1.045255799003902</v>
       </c>
       <c r="L18">
-        <v>1.028344339717083</v>
+        <v>1.052253557352082</v>
       </c>
       <c r="M18">
-        <v>1.0367750722184</v>
+        <v>1.057440391029643</v>
       </c>
       <c r="N18">
-        <v>1.012698500538278</v>
+        <v>1.016473670354007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.999662351389647</v>
+        <v>1.031415526915464</v>
       </c>
       <c r="D19">
-        <v>1.021684963528759</v>
+        <v>1.04200019107046</v>
       </c>
       <c r="E19">
-        <v>1.015074783381423</v>
+        <v>1.049039937041534</v>
       </c>
       <c r="F19">
-        <v>1.023639047811709</v>
+        <v>1.05424132550331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043912256552668</v>
+        <v>1.037792232780449</v>
       </c>
       <c r="J19">
-        <v>1.026603418879159</v>
+        <v>1.037521667165645</v>
       </c>
       <c r="K19">
-        <v>1.035077003152934</v>
+        <v>1.04528940947135</v>
       </c>
       <c r="L19">
-        <v>1.028575106733809</v>
+        <v>1.052305536089298</v>
       </c>
       <c r="M19">
-        <v>1.036999420682323</v>
+        <v>1.057489695450311</v>
       </c>
       <c r="N19">
-        <v>1.012749982055906</v>
+        <v>1.016484239107929</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9983175801902103</v>
+        <v>1.031151033184994</v>
       </c>
       <c r="D20">
-        <v>1.020653152106138</v>
+        <v>1.041785637359516</v>
       </c>
       <c r="E20">
-        <v>1.013734855422615</v>
+        <v>1.048743527434067</v>
       </c>
       <c r="F20">
-        <v>1.022332144511827</v>
+        <v>1.053957259145909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043542444726025</v>
+        <v>1.037735700218088</v>
       </c>
       <c r="J20">
-        <v>1.025913510706106</v>
+        <v>1.037379965933706</v>
       </c>
       <c r="K20">
-        <v>1.034342308634471</v>
+        <v>1.045139089329541</v>
       </c>
       <c r="L20">
-        <v>1.027540418138422</v>
+        <v>1.052073143457184</v>
       </c>
       <c r="M20">
-        <v>1.03599335649532</v>
+        <v>1.05726924088834</v>
       </c>
       <c r="N20">
-        <v>1.012519024265787</v>
+        <v>1.016436970481326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9938760495138353</v>
+        <v>1.030292077015305</v>
       </c>
       <c r="D21">
-        <v>1.01725108298508</v>
+        <v>1.041088979419845</v>
       </c>
       <c r="E21">
-        <v>1.00932212684563</v>
+        <v>1.047781987740713</v>
       </c>
       <c r="F21">
-        <v>1.01802588683997</v>
+        <v>1.053035472556694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042310694215921</v>
+        <v>1.037550721365681</v>
       </c>
       <c r="J21">
-        <v>1.023632060840298</v>
+        <v>1.036919237407439</v>
       </c>
       <c r="K21">
-        <v>1.031912836525306</v>
+        <v>1.044650280771714</v>
       </c>
       <c r="L21">
-        <v>1.024129015069271</v>
+        <v>1.051318822849647</v>
       </c>
       <c r="M21">
-        <v>1.032673615735689</v>
+        <v>1.056553344116808</v>
       </c>
       <c r="N21">
-        <v>1.011755256463114</v>
+        <v>1.016283250649154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9910280350844552</v>
+        <v>1.029752746377899</v>
       </c>
       <c r="D22">
-        <v>1.015074325259179</v>
+        <v>1.040651645239306</v>
       </c>
       <c r="E22">
-        <v>1.006502575070322</v>
+        <v>1.047179062994523</v>
       </c>
       <c r="F22">
-        <v>1.01527263770129</v>
+        <v>1.052457254131403</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041513093554004</v>
+        <v>1.037433512540227</v>
       </c>
       <c r="J22">
-        <v>1.022167130784983</v>
+        <v>1.036629531976608</v>
       </c>
       <c r="K22">
-        <v>1.030352957126322</v>
+        <v>1.044342875668797</v>
       </c>
       <c r="L22">
-        <v>1.02194630600424</v>
+        <v>1.050845488484686</v>
       </c>
       <c r="M22">
-        <v>1.030547493060899</v>
+        <v>1.056103871015322</v>
       </c>
       <c r="N22">
-        <v>1.01126483479918</v>
+        <v>1.016186568831511</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925432194366839</v>
+        <v>1.030038585998031</v>
       </c>
       <c r="D23">
-        <v>1.016231929147721</v>
+        <v>1.040883419030678</v>
       </c>
       <c r="E23">
-        <v>1.008001666213418</v>
+        <v>1.047498529266436</v>
       </c>
       <c r="F23">
-        <v>1.016736638132188</v>
+        <v>1.052763650406487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041938149140183</v>
+        <v>1.037495732718661</v>
       </c>
       <c r="J23">
-        <v>1.022946673884039</v>
+        <v>1.036783112443936</v>
       </c>
       <c r="K23">
-        <v>1.03118301494365</v>
+        <v>1.044505843254962</v>
       </c>
       <c r="L23">
-        <v>1.023107079174883</v>
+        <v>1.051096322578789</v>
       </c>
       <c r="M23">
-        <v>1.031678366053962</v>
+        <v>1.056342083981145</v>
       </c>
       <c r="N23">
-        <v>1.011525805806764</v>
+        <v>1.016237824575642</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9983911340567772</v>
+        <v>1.031165445919987</v>
       </c>
       <c r="D24">
-        <v>1.020709567189007</v>
+        <v>1.041797328343437</v>
       </c>
       <c r="E24">
-        <v>1.01380809691492</v>
+        <v>1.048759675306439</v>
       </c>
       <c r="F24">
-        <v>1.022403589485233</v>
+        <v>1.053972735666987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043562711024326</v>
+        <v>1.037738786011944</v>
       </c>
       <c r="J24">
-        <v>1.025951256924716</v>
+        <v>1.037387689552804</v>
       </c>
       <c r="K24">
-        <v>1.034382504981031</v>
+        <v>1.045147282947619</v>
       </c>
       <c r="L24">
-        <v>1.027596989724197</v>
+        <v>1.05208580549308</v>
       </c>
       <c r="M24">
-        <v>1.036048373245789</v>
+        <v>1.057281253702248</v>
       </c>
       <c r="N24">
-        <v>1.012531660499562</v>
+        <v>1.016439547036819</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004949500827441</v>
+        <v>1.032476215402256</v>
       </c>
       <c r="D25">
-        <v>1.025749534846758</v>
+        <v>1.042860774127882</v>
       </c>
       <c r="E25">
-        <v>1.020361216065193</v>
+        <v>1.050230205715813</v>
       </c>
       <c r="F25">
-        <v>1.0287917667327</v>
+        <v>1.055381597130682</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045350764711642</v>
+        <v>1.038016869076986</v>
       </c>
       <c r="J25">
-        <v>1.02931143497083</v>
+        <v>1.038089105911908</v>
       </c>
       <c r="K25">
-        <v>1.037960852944563</v>
+        <v>1.045891277496112</v>
       </c>
       <c r="L25">
-        <v>1.032651464058447</v>
+        <v>1.053238064990846</v>
       </c>
       <c r="M25">
-        <v>1.040958983982801</v>
+        <v>1.058373832444395</v>
       </c>
       <c r="N25">
-        <v>1.013656487240216</v>
+        <v>1.016673479485006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033524121305692</v>
+        <v>1.010010542907148</v>
       </c>
       <c r="D2">
-        <v>1.043711246246137</v>
+        <v>1.02965194044684</v>
       </c>
       <c r="E2">
-        <v>1.051408696855093</v>
+        <v>1.025450490180422</v>
       </c>
       <c r="F2">
-        <v>1.05650988762704</v>
+        <v>1.033746689520477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038235441160286</v>
+        <v>1.046702253175487</v>
       </c>
       <c r="J2">
-        <v>1.03864837572425</v>
+        <v>1.031895908000709</v>
       </c>
       <c r="K2">
-        <v>1.046484342436077</v>
+        <v>1.040713072914985</v>
       </c>
       <c r="L2">
-        <v>1.054160280470766</v>
+        <v>1.036566290014117</v>
       </c>
       <c r="M2">
-        <v>1.059247401728483</v>
+        <v>1.044755077522096</v>
       </c>
       <c r="N2">
-        <v>1.016859921101848</v>
+        <v>1.01452152275577</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034286375530582</v>
+        <v>1.013593122839858</v>
       </c>
       <c r="D3">
-        <v>1.044330046317329</v>
+        <v>1.03242119098566</v>
       </c>
       <c r="E3">
-        <v>1.052267596531864</v>
+        <v>1.029071402029913</v>
       </c>
       <c r="F3">
-        <v>1.057331748497834</v>
+        <v>1.037268285439645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038392259226163</v>
+        <v>1.047641947992271</v>
       </c>
       <c r="J3">
-        <v>1.039054328792287</v>
+        <v>1.033719962015229</v>
       </c>
       <c r="K3">
-        <v>1.046914735619861</v>
+        <v>1.042655384637831</v>
       </c>
       <c r="L3">
-        <v>1.054831701528539</v>
+        <v>1.039345345322792</v>
       </c>
       <c r="M3">
-        <v>1.059882894866289</v>
+        <v>1.047445524274212</v>
       </c>
       <c r="N3">
-        <v>1.016995203377904</v>
+        <v>1.015131939548677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034780233276087</v>
+        <v>1.01587059427738</v>
       </c>
       <c r="D4">
-        <v>1.044731032906577</v>
+        <v>1.034184556894663</v>
       </c>
       <c r="E4">
-        <v>1.052824835392386</v>
+        <v>1.031381637308567</v>
       </c>
       <c r="F4">
-        <v>1.057864748094505</v>
+        <v>1.039513394380473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038492854421043</v>
+        <v>1.048231263059187</v>
       </c>
       <c r="J4">
-        <v>1.039316941390243</v>
+        <v>1.034876860454314</v>
       </c>
       <c r="K4">
-        <v>1.047193116403528</v>
+        <v>1.043887194094147</v>
       </c>
       <c r="L4">
-        <v>1.055266983402796</v>
+        <v>1.041115510749726</v>
       </c>
       <c r="M4">
-        <v>1.060294648198379</v>
+        <v>1.049157216738833</v>
       </c>
       <c r="N4">
-        <v>1.017082695233123</v>
+        <v>1.015519035609587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034987999628495</v>
+        <v>1.016818576430965</v>
       </c>
       <c r="D5">
-        <v>1.044899744990607</v>
+        <v>1.034919216747175</v>
       </c>
       <c r="E5">
-        <v>1.053059449267036</v>
+        <v>1.032345258712714</v>
       </c>
       <c r="F5">
-        <v>1.058089106466545</v>
+        <v>1.040449423672207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038534934052772</v>
+        <v>1.048474600302952</v>
       </c>
       <c r="J5">
-        <v>1.039427326612931</v>
+        <v>1.035357749641688</v>
       </c>
       <c r="K5">
-        <v>1.047310119384432</v>
+        <v>1.044399194655432</v>
       </c>
       <c r="L5">
-        <v>1.05545017228951</v>
+        <v>1.041853151118723</v>
       </c>
       <c r="M5">
-        <v>1.060467878451152</v>
+        <v>1.049869998788284</v>
       </c>
       <c r="N5">
-        <v>1.017119465622807</v>
+        <v>1.015679924698413</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035022893170703</v>
+        <v>1.016977199492556</v>
       </c>
       <c r="D6">
-        <v>1.044928080489048</v>
+        <v>1.035042183685092</v>
       </c>
       <c r="E6">
-        <v>1.053098862471737</v>
+        <v>1.032506615924398</v>
       </c>
       <c r="F6">
-        <v>1.058126793896005</v>
+        <v>1.040606135368356</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038541987037821</v>
+        <v>1.048515201118537</v>
       </c>
       <c r="J6">
-        <v>1.03944585973709</v>
+        <v>1.035438175858307</v>
       </c>
       <c r="K6">
-        <v>1.047329762999641</v>
+        <v>1.044484822372018</v>
       </c>
       <c r="L6">
-        <v>1.055480941975556</v>
+        <v>1.041976626023192</v>
       </c>
       <c r="M6">
-        <v>1.06049697209557</v>
+        <v>1.049989283554267</v>
       </c>
       <c r="N6">
-        <v>1.017125638863817</v>
+        <v>1.015706831602692</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034783008878857</v>
+        <v>1.015883298100809</v>
       </c>
       <c r="D7">
-        <v>1.044733286708517</v>
+        <v>1.034194399400624</v>
       </c>
       <c r="E7">
-        <v>1.052827968939204</v>
+        <v>1.031394542826832</v>
       </c>
       <c r="F7">
-        <v>1.057867744863489</v>
+        <v>1.039525932057047</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038493417519523</v>
+        <v>1.048234531779385</v>
       </c>
       <c r="J7">
-        <v>1.039318416431827</v>
+        <v>1.034883307449791</v>
       </c>
       <c r="K7">
-        <v>1.047194679916037</v>
+        <v>1.043894058293768</v>
       </c>
       <c r="L7">
-        <v>1.055269430412172</v>
+        <v>1.041125392585324</v>
       </c>
       <c r="M7">
-        <v>1.060296962404208</v>
+        <v>1.049166767507185</v>
       </c>
       <c r="N7">
-        <v>1.017083186605396</v>
+        <v>1.015521192617423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033781597480278</v>
+        <v>1.011229889065536</v>
       </c>
       <c r="D8">
-        <v>1.043920251065131</v>
+        <v>1.030593831984447</v>
       </c>
       <c r="E8">
-        <v>1.05169865971801</v>
+        <v>1.026681117423992</v>
       </c>
       <c r="F8">
-        <v>1.056787389490717</v>
+        <v>1.034943927018636</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038288619620223</v>
+        <v>1.0470237507735</v>
       </c>
       <c r="J8">
-        <v>1.038785582404612</v>
+        <v>1.032517276545325</v>
       </c>
       <c r="K8">
-        <v>1.04662981825904</v>
+        <v>1.041374743010977</v>
       </c>
       <c r="L8">
-        <v>1.054387017969378</v>
+        <v>1.037511408859922</v>
       </c>
       <c r="M8">
-        <v>1.059462055344869</v>
+        <v>1.04567048374187</v>
       </c>
       <c r="N8">
-        <v>1.016905649387706</v>
+        <v>1.014729473989062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032021876882297</v>
+        <v>1.002705324994476</v>
       </c>
       <c r="D9">
-        <v>1.042492116750668</v>
+        <v>1.024022765646855</v>
       </c>
       <c r="E9">
-        <v>1.049720047886395</v>
+        <v>1.018113704596446</v>
       </c>
       <c r="F9">
-        <v>1.054892953760097</v>
+        <v>1.026601791881274</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037921058500404</v>
+        <v>1.044743299777522</v>
       </c>
       <c r="J9">
-        <v>1.037846210051273</v>
+        <v>1.028162911626226</v>
       </c>
       <c r="K9">
-        <v>1.045633660840718</v>
+        <v>1.036737753211421</v>
       </c>
       <c r="L9">
-        <v>1.052838509217487</v>
+        <v>1.030919579908175</v>
       </c>
       <c r="M9">
-        <v>1.05799510746232</v>
+        <v>1.039277529219764</v>
       </c>
       <c r="N9">
-        <v>1.016592482969039</v>
+        <v>1.013272031516575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03085213154388</v>
+        <v>0.9967849805955349</v>
       </c>
       <c r="D10">
-        <v>1.041543192552042</v>
+        <v>1.019478219548384</v>
       </c>
       <c r="E10">
-        <v>1.048408744958113</v>
+        <v>1.012209999166183</v>
       </c>
       <c r="F10">
-        <v>1.053636367272013</v>
+        <v>1.020844468866167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037671569745549</v>
+        <v>1.043119165028723</v>
       </c>
       <c r="J10">
-        <v>1.037219734686705</v>
+        <v>1.025126739330923</v>
       </c>
       <c r="K10">
-        <v>1.044969102162975</v>
+        <v>1.033504474571225</v>
       </c>
       <c r="L10">
-        <v>1.051810586614146</v>
+        <v>1.026362243127016</v>
       </c>
       <c r="M10">
-        <v>1.057020114409214</v>
+        <v>1.034847299853986</v>
       </c>
       <c r="N10">
-        <v>1.016383515299106</v>
+        <v>1.012255636461395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030346449243923</v>
+        <v>0.9941606107488062</v>
       </c>
       <c r="D11">
-        <v>1.0411330728517</v>
+        <v>1.017468778944901</v>
       </c>
       <c r="E11">
-        <v>1.047842805834544</v>
+        <v>1.009604266413178</v>
       </c>
       <c r="F11">
-        <v>1.05309378912461</v>
+        <v>1.018301319857428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037562492651705</v>
+        <v>1.042390064647608</v>
       </c>
       <c r="J11">
-        <v>1.036948426135298</v>
+        <v>1.023778349158057</v>
       </c>
       <c r="K11">
-        <v>1.044681250981125</v>
+        <v>1.03206861126944</v>
       </c>
       <c r="L11">
-        <v>1.051366554307569</v>
+        <v>1.024347305066785</v>
       </c>
       <c r="M11">
-        <v>1.056598658797985</v>
+        <v>1.032886160550404</v>
       </c>
       <c r="N11">
-        <v>1.016292990673146</v>
+        <v>1.011804230195378</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030158742194022</v>
+        <v>0.9931762571290056</v>
       </c>
       <c r="D12">
-        <v>1.040980853898019</v>
+        <v>1.016715882722567</v>
       </c>
       <c r="E12">
-        <v>1.047632872983634</v>
+        <v>1.008628618724371</v>
       </c>
       <c r="F12">
-        <v>1.05289248379388</v>
+        <v>1.017348807152879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037521820030239</v>
+        <v>1.042115253112065</v>
       </c>
       <c r="J12">
-        <v>1.036847645260756</v>
+        <v>1.023272244215428</v>
       </c>
       <c r="K12">
-        <v>1.044574317709982</v>
+        <v>1.031529690141596</v>
       </c>
       <c r="L12">
-        <v>1.051201782726125</v>
+        <v>1.023592354281966</v>
       </c>
       <c r="M12">
-        <v>1.056442221815254</v>
+        <v>1.032151011883892</v>
       </c>
       <c r="N12">
-        <v>1.016259360215746</v>
+        <v>1.011634798694729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030199000266889</v>
+        <v>0.9933878430909785</v>
       </c>
       <c r="D13">
-        <v>1.041013500019671</v>
+        <v>1.016877679792048</v>
       </c>
       <c r="E13">
-        <v>1.047677891491108</v>
+        <v>1.008838255429463</v>
       </c>
       <c r="F13">
-        <v>1.052935653921408</v>
+        <v>1.017553486219165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037530551517119</v>
+        <v>1.042174383547301</v>
       </c>
       <c r="J13">
-        <v>1.036869263296747</v>
+        <v>1.023381046285153</v>
       </c>
       <c r="K13">
-        <v>1.044597255803492</v>
+        <v>1.031645546181895</v>
       </c>
       <c r="L13">
-        <v>1.051237119439711</v>
+        <v>1.023754592942492</v>
       </c>
       <c r="M13">
-        <v>1.056475773054478</v>
+        <v>1.032309011035793</v>
       </c>
       <c r="N13">
-        <v>1.016266574308085</v>
+        <v>1.011671222952321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030330930741868</v>
+        <v>0.9940794409417144</v>
       </c>
       <c r="D14">
-        <v>1.041120487971787</v>
+        <v>1.017406678391394</v>
       </c>
       <c r="E14">
-        <v>1.0478254469517</v>
+        <v>1.009523779465706</v>
       </c>
       <c r="F14">
-        <v>1.053077144410716</v>
+        <v>1.018222747474691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037559133829048</v>
+        <v>1.042367430711333</v>
       </c>
       <c r="J14">
-        <v>1.036940095647148</v>
+        <v>1.023736622647472</v>
       </c>
       <c r="K14">
-        <v>1.044672412090825</v>
+        <v>1.032024178820589</v>
       </c>
       <c r="L14">
-        <v>1.051352930926477</v>
+        <v>1.024285035050646</v>
       </c>
       <c r="M14">
-        <v>1.056585725405713</v>
+        <v>1.032825531048566</v>
       </c>
       <c r="N14">
-        <v>1.016290210880199</v>
+        <v>1.011790261186498</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030412234197924</v>
+        <v>0.9945042797072662</v>
       </c>
       <c r="D15">
-        <v>1.041186422443791</v>
+        <v>1.017731742896024</v>
       </c>
       <c r="E15">
-        <v>1.047916398190913</v>
+        <v>1.009945114302507</v>
       </c>
       <c r="F15">
-        <v>1.053164352224735</v>
+        <v>1.018634047786448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037576723614904</v>
+        <v>1.04248584120483</v>
       </c>
       <c r="J15">
-        <v>1.036983737198985</v>
+        <v>1.023955003120494</v>
       </c>
       <c r="K15">
-        <v>1.044718716742917</v>
+        <v>1.032256721822642</v>
       </c>
       <c r="L15">
-        <v>1.0514243076977</v>
+        <v>1.024610986706799</v>
       </c>
       <c r="M15">
-        <v>1.056653485360712</v>
+        <v>1.03314288099545</v>
       </c>
       <c r="N15">
-        <v>1.01630477342681</v>
+        <v>1.011863369580712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030885709560016</v>
+        <v>0.9969578356152244</v>
       </c>
       <c r="D16">
-        <v>1.041570427252564</v>
+        <v>1.019610681756513</v>
       </c>
       <c r="E16">
-        <v>1.048446343922372</v>
+        <v>1.012381863669833</v>
       </c>
       <c r="F16">
-        <v>1.053672408861561</v>
+        <v>1.021012163772067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037678786840953</v>
+        <v>1.043166999434878</v>
       </c>
       <c r="J16">
-        <v>1.037237739797533</v>
+        <v>1.025215501496675</v>
       </c>
       <c r="K16">
-        <v>1.044988204062897</v>
+        <v>1.033598996804066</v>
       </c>
       <c r="L16">
-        <v>1.051840078166211</v>
+        <v>1.026495069472079</v>
       </c>
       <c r="M16">
-        <v>1.057048100412779</v>
+        <v>1.034976530067423</v>
       </c>
       <c r="N16">
-        <v>1.01638952231223</v>
+        <v>1.012285351559332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031182930404172</v>
+        <v>0.9984803216251192</v>
       </c>
       <c r="D17">
-        <v>1.04181151106331</v>
+        <v>1.020777976439825</v>
       </c>
       <c r="E17">
-        <v>1.048779265353023</v>
+        <v>1.013896913045961</v>
       </c>
       <c r="F17">
-        <v>1.053991511085384</v>
+        <v>1.022490225743532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037742528665645</v>
+        <v>1.043587278882266</v>
       </c>
       <c r="J17">
-        <v>1.03739705896827</v>
+        <v>1.025997024353441</v>
       </c>
       <c r="K17">
-        <v>1.045157222479425</v>
+        <v>1.034431243236196</v>
       </c>
       <c r="L17">
-        <v>1.052101166380423</v>
+        <v>1.027665588866302</v>
       </c>
       <c r="M17">
-        <v>1.057295826799296</v>
+        <v>1.036115085411966</v>
       </c>
       <c r="N17">
-        <v>1.016442672602994</v>
+        <v>1.012546981967522</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031356373781407</v>
+        <v>0.9993625222599757</v>
       </c>
       <c r="D18">
-        <v>1.041952205404617</v>
+        <v>1.021454841100264</v>
       </c>
       <c r="E18">
-        <v>1.048973632467291</v>
+        <v>1.014775874384299</v>
       </c>
       <c r="F18">
-        <v>1.054177785692993</v>
+        <v>1.023347535067179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037779607141204</v>
+        <v>1.043829935331699</v>
       </c>
       <c r="J18">
-        <v>1.037489983142192</v>
+        <v>1.026449634387282</v>
       </c>
       <c r="K18">
-        <v>1.045255799003902</v>
+        <v>1.03491323484577</v>
       </c>
       <c r="L18">
-        <v>1.052253557352082</v>
+        <v>1.028344339717083</v>
       </c>
       <c r="M18">
-        <v>1.057440391029643</v>
+        <v>1.0367750722184</v>
       </c>
       <c r="N18">
-        <v>1.016473670354007</v>
+        <v>1.012698500538278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031415526915464</v>
+        <v>0.9996623513896469</v>
       </c>
       <c r="D19">
-        <v>1.04200019107046</v>
+        <v>1.021684963528759</v>
       </c>
       <c r="E19">
-        <v>1.049039937041534</v>
+        <v>1.015074783381423</v>
       </c>
       <c r="F19">
-        <v>1.05424132550331</v>
+        <v>1.023639047811709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037792232780449</v>
+        <v>1.043912256552668</v>
       </c>
       <c r="J19">
-        <v>1.037521667165645</v>
+        <v>1.026603418879159</v>
       </c>
       <c r="K19">
-        <v>1.04528940947135</v>
+        <v>1.035077003152934</v>
       </c>
       <c r="L19">
-        <v>1.052305536089298</v>
+        <v>1.02857510673381</v>
       </c>
       <c r="M19">
-        <v>1.057489695450311</v>
+        <v>1.036999420682323</v>
       </c>
       <c r="N19">
-        <v>1.016484239107929</v>
+        <v>1.012749982055906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031151033184994</v>
+        <v>0.9983175801902103</v>
       </c>
       <c r="D20">
-        <v>1.041785637359516</v>
+        <v>1.020653152106138</v>
       </c>
       <c r="E20">
-        <v>1.048743527434067</v>
+        <v>1.013734855422615</v>
       </c>
       <c r="F20">
-        <v>1.053957259145909</v>
+        <v>1.022332144511827</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037735700218088</v>
+        <v>1.043542444726025</v>
       </c>
       <c r="J20">
-        <v>1.037379965933706</v>
+        <v>1.025913510706106</v>
       </c>
       <c r="K20">
-        <v>1.045139089329541</v>
+        <v>1.034342308634471</v>
       </c>
       <c r="L20">
-        <v>1.052073143457184</v>
+        <v>1.027540418138422</v>
       </c>
       <c r="M20">
-        <v>1.05726924088834</v>
+        <v>1.03599335649532</v>
       </c>
       <c r="N20">
-        <v>1.016436970481326</v>
+        <v>1.012519024265787</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030292077015305</v>
+        <v>0.993876049513835</v>
       </c>
       <c r="D21">
-        <v>1.041088979419845</v>
+        <v>1.01725108298508</v>
       </c>
       <c r="E21">
-        <v>1.047781987740713</v>
+        <v>1.00932212684563</v>
       </c>
       <c r="F21">
-        <v>1.053035472556694</v>
+        <v>1.018025886839969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037550721365681</v>
+        <v>1.042310694215921</v>
       </c>
       <c r="J21">
-        <v>1.036919237407439</v>
+        <v>1.023632060840298</v>
       </c>
       <c r="K21">
-        <v>1.044650280771714</v>
+        <v>1.031912836525306</v>
       </c>
       <c r="L21">
-        <v>1.051318822849647</v>
+        <v>1.024129015069271</v>
       </c>
       <c r="M21">
-        <v>1.056553344116808</v>
+        <v>1.032673615735688</v>
       </c>
       <c r="N21">
-        <v>1.016283250649154</v>
+        <v>1.011755256463114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029752746377899</v>
+        <v>0.9910280350844547</v>
       </c>
       <c r="D22">
-        <v>1.040651645239306</v>
+        <v>1.015074325259179</v>
       </c>
       <c r="E22">
-        <v>1.047179062994523</v>
+        <v>1.006502575070321</v>
       </c>
       <c r="F22">
-        <v>1.052457254131403</v>
+        <v>1.015272637701289</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037433512540227</v>
+        <v>1.041513093554004</v>
       </c>
       <c r="J22">
-        <v>1.036629531976608</v>
+        <v>1.022167130784982</v>
       </c>
       <c r="K22">
-        <v>1.044342875668797</v>
+        <v>1.030352957126322</v>
       </c>
       <c r="L22">
-        <v>1.050845488484686</v>
+        <v>1.021946306004239</v>
       </c>
       <c r="M22">
-        <v>1.056103871015322</v>
+        <v>1.030547493060899</v>
       </c>
       <c r="N22">
-        <v>1.016186568831511</v>
+        <v>1.01126483479918</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030038585998031</v>
+        <v>0.9925432194366851</v>
       </c>
       <c r="D23">
-        <v>1.040883419030678</v>
+        <v>1.016231929147722</v>
       </c>
       <c r="E23">
-        <v>1.047498529266436</v>
+        <v>1.008001666213419</v>
       </c>
       <c r="F23">
-        <v>1.052763650406487</v>
+        <v>1.016736638132189</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037495732718661</v>
+        <v>1.041938149140184</v>
       </c>
       <c r="J23">
-        <v>1.036783112443936</v>
+        <v>1.02294667388404</v>
       </c>
       <c r="K23">
-        <v>1.044505843254962</v>
+        <v>1.031183014943651</v>
       </c>
       <c r="L23">
-        <v>1.051096322578789</v>
+        <v>1.023107079174884</v>
       </c>
       <c r="M23">
-        <v>1.056342083981145</v>
+        <v>1.031678366053963</v>
       </c>
       <c r="N23">
-        <v>1.016237824575642</v>
+        <v>1.011525805806764</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031165445919987</v>
+        <v>0.9983911340567765</v>
       </c>
       <c r="D24">
-        <v>1.041797328343437</v>
+        <v>1.020709567189006</v>
       </c>
       <c r="E24">
-        <v>1.048759675306439</v>
+        <v>1.013808096914919</v>
       </c>
       <c r="F24">
-        <v>1.053972735666987</v>
+        <v>1.022403589485233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037738786011944</v>
+        <v>1.043562711024326</v>
       </c>
       <c r="J24">
-        <v>1.037387689552804</v>
+        <v>1.025951256924715</v>
       </c>
       <c r="K24">
-        <v>1.045147282947619</v>
+        <v>1.03438250498103</v>
       </c>
       <c r="L24">
-        <v>1.05208580549308</v>
+        <v>1.027596989724197</v>
       </c>
       <c r="M24">
-        <v>1.057281253702248</v>
+        <v>1.036048373245789</v>
       </c>
       <c r="N24">
-        <v>1.016439547036819</v>
+        <v>1.012531660499562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032476215402256</v>
+        <v>1.004949500827441</v>
       </c>
       <c r="D25">
-        <v>1.042860774127882</v>
+        <v>1.025749534846758</v>
       </c>
       <c r="E25">
-        <v>1.050230205715813</v>
+        <v>1.020361216065193</v>
       </c>
       <c r="F25">
-        <v>1.055381597130682</v>
+        <v>1.028791766732699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038016869076986</v>
+        <v>1.045350764711642</v>
       </c>
       <c r="J25">
-        <v>1.038089105911908</v>
+        <v>1.02931143497083</v>
       </c>
       <c r="K25">
-        <v>1.045891277496112</v>
+        <v>1.037960852944563</v>
       </c>
       <c r="L25">
-        <v>1.053238064990846</v>
+        <v>1.032651464058446</v>
       </c>
       <c r="M25">
-        <v>1.058373832444395</v>
+        <v>1.0409589839828</v>
       </c>
       <c r="N25">
-        <v>1.016673479485006</v>
+        <v>1.013656487240216</v>
       </c>
     </row>
   </sheetData>
